--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.03034166666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.09102499999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.001862306623420098</v>
+      </c>
+      <c r="J2">
+        <v>0.001862306623420098</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.1241926666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.372578</v>
-      </c>
-      <c r="I2">
-        <v>0.00757902233016378</v>
-      </c>
-      <c r="J2">
-        <v>0.00757902233016378</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N2">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P2">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q2">
-        <v>0.009140621664222222</v>
+        <v>0.002248266930555555</v>
       </c>
       <c r="R2">
-        <v>0.082265594978</v>
+        <v>0.020234402375</v>
       </c>
       <c r="S2">
-        <v>0.0002177794612620134</v>
+        <v>5.386406791511614E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002177794612620134</v>
+        <v>5.386406791511613E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H3">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I3">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J3">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.264165</v>
       </c>
       <c r="O3">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P3">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q3">
-        <v>0.05233334081888889</v>
+        <v>0.01278562434722222</v>
       </c>
       <c r="R3">
-        <v>0.4710000673699999</v>
+        <v>0.115070619125</v>
       </c>
       <c r="S3">
-        <v>0.001246865605890793</v>
+        <v>0.0003063184930651287</v>
       </c>
       <c r="T3">
-        <v>0.001246865605890793</v>
+        <v>0.0003063184930651287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H4">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I4">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J4">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O4">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P4">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q4">
-        <v>0.2566321403755556</v>
+        <v>0.0626981211388889</v>
       </c>
       <c r="R4">
-        <v>2.30968926338</v>
+        <v>0.56428309025</v>
       </c>
       <c r="S4">
-        <v>0.006114377263010974</v>
+        <v>0.001502124062439853</v>
       </c>
       <c r="T4">
-        <v>0.006114377263010974</v>
+        <v>0.001502124062439853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>25.699091</v>
       </c>
       <c r="I5">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J5">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N5">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O5">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P5">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q5">
-        <v>0.6304872213212224</v>
+        <v>0.6347532704272223</v>
       </c>
       <c r="R5">
-        <v>5.674384991891001</v>
+        <v>5.712779433845</v>
       </c>
       <c r="S5">
-        <v>0.01502164430777839</v>
+        <v>0.01520744392178797</v>
       </c>
       <c r="T5">
-        <v>0.01502164430777839</v>
+        <v>0.01520744392178797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.699091</v>
       </c>
       <c r="I6">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J6">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.264165</v>
       </c>
       <c r="O6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P6">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q6">
         <v>3.609765708223889</v>
@@ -818,10 +818,10 @@
         <v>32.487891374015</v>
       </c>
       <c r="S6">
-        <v>0.08600430693856762</v>
+        <v>0.08648290940141294</v>
       </c>
       <c r="T6">
-        <v>0.08600430693856763</v>
+        <v>0.08648290940141293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.699091</v>
       </c>
       <c r="I7">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J7">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O7">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P7">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q7">
         <v>17.70156243534556</v>
@@ -880,10 +880,10 @@
         <v>159.31406191811</v>
       </c>
       <c r="S7">
-        <v>0.4217477620537175</v>
+        <v>0.4240947319300354</v>
       </c>
       <c r="T7">
-        <v>0.4217477620537176</v>
+        <v>0.4240947319300353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H8">
         <v>23.087442</v>
       </c>
       <c r="I8">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J8">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07360033333333334</v>
+        <v>0.07409833333333334</v>
       </c>
       <c r="N8">
-        <v>0.220801</v>
+        <v>0.222295</v>
       </c>
       <c r="O8">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="P8">
-        <v>0.02873450582079328</v>
+        <v>0.02892330792240624</v>
       </c>
       <c r="Q8">
-        <v>0.5664144756713333</v>
+        <v>0.5702469910433334</v>
       </c>
       <c r="R8">
-        <v>5.097730281042001</v>
+        <v>5.13222291939</v>
       </c>
       <c r="S8">
-        <v>0.01349508205175287</v>
+        <v>0.01366199993270316</v>
       </c>
       <c r="T8">
-        <v>0.01349508205175287</v>
+        <v>0.01366199993270316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H9">
         <v>23.087442</v>
       </c>
       <c r="I9">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J9">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.264165</v>
       </c>
       <c r="O9">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="P9">
-        <v>0.1645153624799848</v>
+        <v>0.1644833827109413</v>
       </c>
       <c r="Q9">
-        <v>3.242926235103333</v>
+        <v>3.242926235103334</v>
       </c>
       <c r="R9">
         <v>29.18633611593</v>
       </c>
       <c r="S9">
-        <v>0.0772641899355264</v>
+        <v>0.0776941548164632</v>
       </c>
       <c r="T9">
-        <v>0.0772641899355264</v>
+        <v>0.07769415481646319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H10">
         <v>23.087442</v>
       </c>
       <c r="I10">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J10">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>6.199210000000001</v>
       </c>
       <c r="O10">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666526</v>
       </c>
       <c r="P10">
-        <v>0.8067501316992219</v>
+        <v>0.8065933093666525</v>
       </c>
       <c r="Q10">
-        <v>15.90265570231333</v>
+        <v>15.90265570231334</v>
       </c>
       <c r="R10">
         <v>143.12390132082</v>
       </c>
       <c r="S10">
-        <v>0.3788879923824934</v>
+        <v>0.3809964533741774</v>
       </c>
       <c r="T10">
-        <v>0.3788879923824934</v>
+        <v>0.3809964533741773</v>
       </c>
     </row>
   </sheetData>
